--- a/docs/source/MIP/tutorials/dataset/Warehouses_Products.xlsx
+++ b/docs/source/MIP/tutorials/dataset/Warehouses_Products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/668a109b606e2344/EDEM/Operations Research/202021/Units/Unit 3 - MIP and Network Theory/Lecture 3 Transportation Problems/Exercises/DSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffraile\PycharmProjects\operations-research-notebooks\docs\source\MIP\tutorials\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_A52A79AB487533FC994920251E00198E636255B7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B85FBEF-D9C9-4037-BFE4-2BEB918685E1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE7BF34-6844-4CA7-9F8D-B562E60E29E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22155" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Warehouses_Products" sheetId="1" r:id="rId1"/>
@@ -413,12 +413,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.23046875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -451,7 +451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -484,7 +484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -506,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -517,7 +517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -539,7 +539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -550,7 +550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
